--- a/database/industries/palayesh/shavan/income/quarterly/rial.xlsx
+++ b/database/industries/palayesh/shavan/income/quarterly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4A4D94-1A35-4599-8302-4C4EB067F83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شاوان-پالایش نفت لاوان</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-08-30 (4)</t>
-  </si>
-  <si>
-    <t>1400-11-05 (2)</t>
-  </si>
-  <si>
-    <t>1401-08-30 (5)</t>
+    <t>1401-10-29 (3)</t>
+  </si>
+  <si>
+    <t>1401-10-29 (6)</t>
   </si>
   <si>
     <t>1401-04-21</t>
   </si>
   <si>
     <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +305,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -316,7 +317,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -363,6 +364,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -398,6 +416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,21 +584,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -572,7 +607,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +618,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,7 +629,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -603,7 +638,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -614,7 +649,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -625,7 +660,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -634,7 +669,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -655,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -676,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -685,91 +720,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>78547663</v>
+        <v>82700181</v>
       </c>
       <c r="E11" s="13">
-        <v>82700181</v>
+        <v>100241751</v>
       </c>
       <c r="F11" s="13">
-        <v>100241751</v>
+        <v>132230271</v>
       </c>
       <c r="G11" s="13">
-        <v>132230271</v>
+        <v>136993252</v>
       </c>
       <c r="H11" s="13">
-        <v>136993252</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>103239511</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-66365872</v>
+        <v>-76509899</v>
       </c>
       <c r="E12" s="11">
-        <v>-76509899</v>
+        <v>-95791807</v>
       </c>
       <c r="F12" s="11">
-        <v>-95791807</v>
+        <v>-109406194</v>
       </c>
       <c r="G12" s="11">
-        <v>-109406194</v>
+        <v>-120997090</v>
       </c>
       <c r="H12" s="11">
-        <v>-120997090</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-100898806</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>12181791</v>
+        <v>6190282</v>
       </c>
       <c r="E13" s="15">
-        <v>6190282</v>
+        <v>4449944</v>
       </c>
       <c r="F13" s="15">
-        <v>4449944</v>
+        <v>22824077</v>
       </c>
       <c r="G13" s="15">
-        <v>22824077</v>
+        <v>15996162</v>
       </c>
       <c r="H13" s="15">
-        <v>15996162</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2340705</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-293345</v>
+        <v>-265388</v>
       </c>
       <c r="E14" s="11">
-        <v>-265388</v>
+        <v>-1233474</v>
       </c>
       <c r="F14" s="11">
-        <v>-1233474</v>
+        <v>-924523</v>
       </c>
       <c r="G14" s="11">
-        <v>-924523</v>
+        <v>-287482</v>
       </c>
       <c r="H14" s="11">
-        <v>-287482</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-561619</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -790,154 +825,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-14819</v>
+        <v>-112774</v>
       </c>
       <c r="E16" s="11">
-        <v>-112774</v>
+        <v>775536</v>
       </c>
       <c r="F16" s="11">
-        <v>775536</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>1329369</v>
       </c>
       <c r="H16" s="11">
-        <v>1329369</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>949847</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>11873627</v>
+        <v>5812120</v>
       </c>
       <c r="E17" s="15">
-        <v>5812120</v>
+        <v>3992006</v>
       </c>
       <c r="F17" s="15">
-        <v>3992006</v>
+        <v>21899554</v>
       </c>
       <c r="G17" s="15">
-        <v>21899554</v>
+        <v>17038049</v>
       </c>
       <c r="H17" s="15">
-        <v>17038049</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2728933</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-220130</v>
+        <v>-318280</v>
       </c>
       <c r="E18" s="11">
-        <v>-318280</v>
+        <v>-247658</v>
       </c>
       <c r="F18" s="11">
-        <v>-247658</v>
+        <v>-266541</v>
       </c>
       <c r="G18" s="11">
-        <v>-266541</v>
+        <v>-250016</v>
       </c>
       <c r="H18" s="11">
-        <v>-250016</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-362031</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>171331</v>
+        <v>-204571</v>
       </c>
       <c r="E19" s="13">
-        <v>0</v>
+        <v>219700</v>
       </c>
       <c r="F19" s="13">
-        <v>219700</v>
+        <v>40068</v>
       </c>
       <c r="G19" s="13">
-        <v>40068</v>
+        <v>231596</v>
       </c>
       <c r="H19" s="13">
-        <v>231596</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>265952</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>11824828</v>
+        <v>5289269</v>
       </c>
       <c r="E20" s="17">
-        <v>5493840</v>
+        <v>3964048</v>
       </c>
       <c r="F20" s="17">
-        <v>3964048</v>
+        <v>21673081</v>
       </c>
       <c r="G20" s="17">
-        <v>21673081</v>
+        <v>17019629</v>
       </c>
       <c r="H20" s="17">
-        <v>17019629</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2632854</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-2645432</v>
+        <v>-1205239</v>
       </c>
       <c r="E21" s="13">
-        <v>-1205239</v>
+        <v>3286248</v>
       </c>
       <c r="F21" s="13">
-        <v>3286248</v>
+        <v>-5418270</v>
       </c>
       <c r="G21" s="13">
-        <v>-5418270</v>
+        <v>-2892738</v>
       </c>
       <c r="H21" s="13">
-        <v>-2892738</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1802232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>9179396</v>
+        <v>4084030</v>
       </c>
       <c r="E22" s="17">
-        <v>4288601</v>
+        <v>7250296</v>
       </c>
       <c r="F22" s="17">
-        <v>7250296</v>
+        <v>16254811</v>
       </c>
       <c r="G22" s="17">
-        <v>16254811</v>
+        <v>14126891</v>
       </c>
       <c r="H22" s="17">
-        <v>14126891</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4435086</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
@@ -958,49 +993,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>9179396</v>
+        <v>4084030</v>
       </c>
       <c r="E24" s="17">
-        <v>4288601</v>
+        <v>7250296</v>
       </c>
       <c r="F24" s="17">
-        <v>7250296</v>
+        <v>16254811</v>
       </c>
       <c r="G24" s="17">
-        <v>16254811</v>
+        <v>14126891</v>
       </c>
       <c r="H24" s="17">
-        <v>14126891</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4435086</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>1147</v>
+        <v>511</v>
       </c>
       <c r="E25" s="13">
-        <v>3751</v>
+        <v>906</v>
       </c>
       <c r="F25" s="13">
-        <v>906</v>
+        <v>2032</v>
       </c>
       <c r="G25" s="13">
-        <v>2032</v>
+        <v>1766</v>
       </c>
       <c r="H25" s="13">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>31</v>
       </c>
@@ -1009,7 +1044,7 @@
         <v>8000000</v>
       </c>
       <c r="E26" s="11">
-        <v>1143422</v>
+        <v>8000000</v>
       </c>
       <c r="F26" s="11">
         <v>8000000</v>
@@ -1021,28 +1056,28 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>1147</v>
+        <v>511</v>
       </c>
       <c r="E27" s="13">
-        <v>536</v>
+        <v>906</v>
       </c>
       <c r="F27" s="13">
-        <v>906</v>
+        <v>2032</v>
       </c>
       <c r="G27" s="13">
-        <v>2032</v>
+        <v>1766</v>
       </c>
       <c r="H27" s="13">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/palayesh/shavan/income/quarterly/rial.xlsx
+++ b/database/industries/palayesh/shavan/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shavan\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4A4D94-1A35-4599-8302-4C4EB067F83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B927BB5E-550C-4070-9C22-7527EB9E4B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-08-30 (5)</t>
+  </si>
+  <si>
+    <t>1400-11-05 (4)</t>
+  </si>
+  <si>
+    <t>1401-04-18 (10)</t>
+  </si>
+  <si>
+    <t>1401-04-21 (2)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
   </si>
   <si>
     <t>1401-10-29 (3)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>28622547</v>
+      </c>
+      <c r="E11" s="13">
+        <v>37415997</v>
+      </c>
+      <c r="F11" s="13">
+        <v>63734615</v>
+      </c>
+      <c r="G11" s="13">
+        <v>65227719</v>
+      </c>
+      <c r="H11" s="13">
+        <v>78547663</v>
+      </c>
+      <c r="I11" s="13">
         <v>82700181</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>100241751</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>132230271</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>136993252</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>103239511</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-21488662</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-36302111</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-46820037</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-55450974</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-66365872</v>
+      </c>
+      <c r="I12" s="11">
         <v>-76509899</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-95791807</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-109406194</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-120997090</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-100898806</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>7133885</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1113886</v>
+      </c>
+      <c r="F13" s="15">
+        <v>16914578</v>
+      </c>
+      <c r="G13" s="15">
+        <v>9776745</v>
+      </c>
+      <c r="H13" s="15">
+        <v>12181791</v>
+      </c>
+      <c r="I13" s="15">
         <v>6190282</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>4449944</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>22824077</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>15996162</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>2340705</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-255557</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-318950</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-188291</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-400738</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-293345</v>
+      </c>
+      <c r="I14" s="11">
         <v>-265388</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-1233474</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-924523</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-287482</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-561619</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>-2696640</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2939744</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-1664696</v>
+      </c>
+      <c r="G16" s="11">
+        <v>970463</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-14819</v>
+      </c>
+      <c r="I16" s="11">
         <v>-112774</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>775536</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
         <v>1329369</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>949847</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>4181688</v>
+      </c>
+      <c r="E17" s="15">
+        <v>3734680</v>
+      </c>
+      <c r="F17" s="15">
+        <v>15061591</v>
+      </c>
+      <c r="G17" s="15">
+        <v>10346470</v>
+      </c>
+      <c r="H17" s="15">
+        <v>11873627</v>
+      </c>
+      <c r="I17" s="15">
         <v>5812120</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>3992006</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>21899554</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>17038049</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>2728933</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-32597</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-51252</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-249840</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-297126</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-220130</v>
+      </c>
+      <c r="I18" s="11">
         <v>-318280</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-247658</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-266541</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-250016</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-362031</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>391860</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-11726</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-324413</v>
+      </c>
+      <c r="G19" s="13">
+        <v>33240</v>
+      </c>
+      <c r="H19" s="13">
+        <v>171331</v>
+      </c>
+      <c r="I19" s="13">
         <v>-204571</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>219700</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>40068</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>231596</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>265952</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>4540951</v>
+      </c>
+      <c r="E20" s="17">
+        <v>3671702</v>
+      </c>
+      <c r="F20" s="17">
+        <v>14487338</v>
+      </c>
+      <c r="G20" s="17">
+        <v>10082584</v>
+      </c>
+      <c r="H20" s="17">
+        <v>11824828</v>
+      </c>
+      <c r="I20" s="17">
         <v>5289269</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>3964048</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>21673081</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>17019629</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>2632854</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-1068628</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-587934</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-1479544</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-2268582</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-2645432</v>
+      </c>
+      <c r="I21" s="13">
         <v>-1205239</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>3286248</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-5418270</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-2892738</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1802232</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>3472323</v>
+      </c>
+      <c r="E22" s="17">
+        <v>3083768</v>
+      </c>
+      <c r="F22" s="17">
+        <v>13007794</v>
+      </c>
+      <c r="G22" s="17">
+        <v>7814002</v>
+      </c>
+      <c r="H22" s="17">
+        <v>9179396</v>
+      </c>
+      <c r="I22" s="17">
         <v>4084030</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>7250296</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>16254811</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>14126891</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>4435086</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,59 +1274,104 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>3472323</v>
+      </c>
+      <c r="E24" s="17">
+        <v>3083768</v>
+      </c>
+      <c r="F24" s="17">
+        <v>13007794</v>
+      </c>
+      <c r="G24" s="17">
+        <v>7814002</v>
+      </c>
+      <c r="H24" s="17">
+        <v>9179396</v>
+      </c>
+      <c r="I24" s="17">
         <v>4084030</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>7250296</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>16254811</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>14126891</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>4435086</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>3037</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2697</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1626</v>
+      </c>
+      <c r="G25" s="13">
+        <v>977</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1147</v>
+      </c>
+      <c r="I25" s="13">
         <v>511</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>906</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>2032</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>1766</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>8000000</v>
+        <v>1143422</v>
       </c>
       <c r="E26" s="11">
-        <v>8000000</v>
+        <v>1143422</v>
       </c>
       <c r="F26" s="11">
         <v>8000000</v>
@@ -1055,29 +1382,59 @@
       <c r="H26" s="11">
         <v>8000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>8000000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>8000000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>8000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>8000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>434</v>
+      </c>
+      <c r="E27" s="13">
+        <v>385</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1626</v>
+      </c>
+      <c r="G27" s="13">
+        <v>977</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1147</v>
+      </c>
+      <c r="I27" s="13">
         <v>511</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>906</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>2032</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>1766</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>554</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/palayesh/shavan/income/quarterly/rial.xlsx
+++ b/database/industries/palayesh/shavan/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B927BB5E-550C-4070-9C22-7527EB9E4B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25051C9-7BE7-4991-8E4E-6438B12BA452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (5)</t>
-  </si>
-  <si>
     <t>1400-11-05 (4)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (3)</t>
   </si>
   <si>
-    <t>1401-10-29 (6)</t>
+    <t>1402-02-27 (7)</t>
   </si>
   <si>
     <t>1401-04-21</t>
@@ -100,6 +97,9 @@
     <t>1401-10-29</t>
   </si>
   <si>
+    <t>1402-02-27</t>
+  </si>
+  <si>
     <t>فروش</t>
   </si>
   <si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
@@ -619,18 +622,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,619 +826,619 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>28622547</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13">
-        <v>37415997</v>
+        <v>0</v>
       </c>
       <c r="F11" s="13">
-        <v>63734615</v>
+        <v>0</v>
       </c>
       <c r="G11" s="13">
-        <v>65227719</v>
+        <v>0</v>
       </c>
       <c r="H11" s="13">
-        <v>78547663</v>
+        <v>0</v>
       </c>
       <c r="I11" s="13">
-        <v>82700181</v>
+        <v>0</v>
       </c>
       <c r="J11" s="13">
-        <v>100241751</v>
+        <v>0</v>
       </c>
       <c r="K11" s="13">
-        <v>132230271</v>
+        <v>0</v>
       </c>
       <c r="L11" s="13">
-        <v>136993252</v>
+        <v>0</v>
       </c>
       <c r="M11" s="13">
-        <v>103239511</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-21488662</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>-36302111</v>
+        <v>0</v>
       </c>
       <c r="F12" s="11">
-        <v>-46820037</v>
+        <v>0</v>
       </c>
       <c r="G12" s="11">
-        <v>-55450974</v>
+        <v>0</v>
       </c>
       <c r="H12" s="11">
-        <v>-66365872</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
-        <v>-76509899</v>
+        <v>0</v>
       </c>
       <c r="J12" s="11">
-        <v>-95791807</v>
+        <v>0</v>
       </c>
       <c r="K12" s="11">
-        <v>-109406194</v>
+        <v>0</v>
       </c>
       <c r="L12" s="11">
-        <v>-120997090</v>
+        <v>0</v>
       </c>
       <c r="M12" s="11">
-        <v>-100898806</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>7133885</v>
+        <v>0</v>
       </c>
       <c r="E13" s="15">
-        <v>1113886</v>
+        <v>0</v>
       </c>
       <c r="F13" s="15">
-        <v>16914578</v>
+        <v>0</v>
       </c>
       <c r="G13" s="15">
-        <v>9776745</v>
+        <v>0</v>
       </c>
       <c r="H13" s="15">
-        <v>12181791</v>
+        <v>0</v>
       </c>
       <c r="I13" s="15">
-        <v>6190282</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15">
-        <v>4449944</v>
+        <v>0</v>
       </c>
       <c r="K13" s="15">
-        <v>22824077</v>
+        <v>0</v>
       </c>
       <c r="L13" s="15">
-        <v>15996162</v>
+        <v>0</v>
       </c>
       <c r="M13" s="15">
-        <v>2340705</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-255557</v>
+        <v>0</v>
       </c>
       <c r="E14" s="11">
-        <v>-318950</v>
+        <v>0</v>
       </c>
       <c r="F14" s="11">
-        <v>-188291</v>
+        <v>0</v>
       </c>
       <c r="G14" s="11">
-        <v>-400738</v>
+        <v>0</v>
       </c>
       <c r="H14" s="11">
-        <v>-293345</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
-        <v>-265388</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11">
-        <v>-1233474</v>
+        <v>0</v>
       </c>
       <c r="K14" s="11">
-        <v>-924523</v>
+        <v>0</v>
       </c>
       <c r="L14" s="11">
-        <v>-287482</v>
+        <v>0</v>
       </c>
       <c r="M14" s="11">
-        <v>-561619</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-2696640</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11">
-        <v>2939744</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>-1664696</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>970463</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>-14819</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>-112774</v>
-      </c>
-      <c r="J16" s="11">
-        <v>775536</v>
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="K16" s="11">
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <v>1329369</v>
+        <v>0</v>
       </c>
       <c r="M16" s="11">
-        <v>949847</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>4181688</v>
+        <v>0</v>
       </c>
       <c r="E17" s="15">
-        <v>3734680</v>
+        <v>0</v>
       </c>
       <c r="F17" s="15">
-        <v>15061591</v>
+        <v>0</v>
       </c>
       <c r="G17" s="15">
-        <v>10346470</v>
+        <v>0</v>
       </c>
       <c r="H17" s="15">
-        <v>11873627</v>
+        <v>0</v>
       </c>
       <c r="I17" s="15">
-        <v>5812120</v>
+        <v>0</v>
       </c>
       <c r="J17" s="15">
-        <v>3992006</v>
+        <v>0</v>
       </c>
       <c r="K17" s="15">
-        <v>21899554</v>
+        <v>0</v>
       </c>
       <c r="L17" s="15">
-        <v>17038049</v>
+        <v>0</v>
       </c>
       <c r="M17" s="15">
-        <v>2728933</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-32597</v>
+        <v>0</v>
       </c>
       <c r="E18" s="11">
-        <v>-51252</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>-249840</v>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>-297126</v>
+        <v>0</v>
       </c>
       <c r="H18" s="11">
-        <v>-220130</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>-318280</v>
+        <v>0</v>
       </c>
       <c r="J18" s="11">
-        <v>-247658</v>
+        <v>0</v>
       </c>
       <c r="K18" s="11">
-        <v>-266541</v>
+        <v>0</v>
       </c>
       <c r="L18" s="11">
-        <v>-250016</v>
+        <v>0</v>
       </c>
       <c r="M18" s="11">
-        <v>-362031</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>391860</v>
+        <v>0</v>
       </c>
       <c r="E19" s="13">
-        <v>-11726</v>
+        <v>0</v>
       </c>
       <c r="F19" s="13">
-        <v>-324413</v>
+        <v>0</v>
       </c>
       <c r="G19" s="13">
-        <v>33240</v>
+        <v>0</v>
       </c>
       <c r="H19" s="13">
-        <v>171331</v>
+        <v>0</v>
       </c>
       <c r="I19" s="13">
-        <v>-204571</v>
+        <v>0</v>
       </c>
       <c r="J19" s="13">
-        <v>219700</v>
+        <v>0</v>
       </c>
       <c r="K19" s="13">
-        <v>40068</v>
+        <v>0</v>
       </c>
       <c r="L19" s="13">
-        <v>231596</v>
+        <v>0</v>
       </c>
       <c r="M19" s="13">
-        <v>265952</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>4540951</v>
+        <v>0</v>
       </c>
       <c r="E20" s="17">
-        <v>3671702</v>
+        <v>0</v>
       </c>
       <c r="F20" s="17">
-        <v>14487338</v>
+        <v>0</v>
       </c>
       <c r="G20" s="17">
-        <v>10082584</v>
+        <v>0</v>
       </c>
       <c r="H20" s="17">
-        <v>11824828</v>
+        <v>0</v>
       </c>
       <c r="I20" s="17">
-        <v>5289269</v>
+        <v>0</v>
       </c>
       <c r="J20" s="17">
-        <v>3964048</v>
+        <v>0</v>
       </c>
       <c r="K20" s="17">
-        <v>21673081</v>
+        <v>0</v>
       </c>
       <c r="L20" s="17">
-        <v>17019629</v>
+        <v>0</v>
       </c>
       <c r="M20" s="17">
-        <v>2632854</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-1068628</v>
+        <v>0</v>
       </c>
       <c r="E21" s="13">
-        <v>-587934</v>
+        <v>0</v>
       </c>
       <c r="F21" s="13">
-        <v>-1479544</v>
+        <v>0</v>
       </c>
       <c r="G21" s="13">
-        <v>-2268582</v>
+        <v>0</v>
       </c>
       <c r="H21" s="13">
-        <v>-2645432</v>
+        <v>0</v>
       </c>
       <c r="I21" s="13">
-        <v>-1205239</v>
+        <v>0</v>
       </c>
       <c r="J21" s="13">
-        <v>3286248</v>
+        <v>0</v>
       </c>
       <c r="K21" s="13">
-        <v>-5418270</v>
+        <v>0</v>
       </c>
       <c r="L21" s="13">
-        <v>-2892738</v>
+        <v>0</v>
       </c>
       <c r="M21" s="13">
-        <v>1802232</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>3472323</v>
+        <v>0</v>
       </c>
       <c r="E22" s="17">
-        <v>3083768</v>
+        <v>0</v>
       </c>
       <c r="F22" s="17">
-        <v>13007794</v>
+        <v>0</v>
       </c>
       <c r="G22" s="17">
-        <v>7814002</v>
+        <v>0</v>
       </c>
       <c r="H22" s="17">
-        <v>9179396</v>
+        <v>0</v>
       </c>
       <c r="I22" s="17">
-        <v>4084030</v>
+        <v>0</v>
       </c>
       <c r="J22" s="17">
-        <v>7250296</v>
+        <v>0</v>
       </c>
       <c r="K22" s="17">
-        <v>16254811</v>
+        <v>0</v>
       </c>
       <c r="L22" s="17">
-        <v>14126891</v>
+        <v>0</v>
       </c>
       <c r="M22" s="17">
-        <v>4435086</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>3472323</v>
+        <v>0</v>
       </c>
       <c r="E24" s="17">
-        <v>3083768</v>
+        <v>0</v>
       </c>
       <c r="F24" s="17">
-        <v>13007794</v>
+        <v>0</v>
       </c>
       <c r="G24" s="17">
-        <v>7814002</v>
+        <v>0</v>
       </c>
       <c r="H24" s="17">
-        <v>9179396</v>
+        <v>0</v>
       </c>
       <c r="I24" s="17">
-        <v>4084030</v>
+        <v>0</v>
       </c>
       <c r="J24" s="17">
-        <v>7250296</v>
+        <v>0</v>
       </c>
       <c r="K24" s="17">
-        <v>16254811</v>
+        <v>0</v>
       </c>
       <c r="L24" s="17">
-        <v>14126891</v>
+        <v>0</v>
       </c>
       <c r="M24" s="17">
-        <v>4435086</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>3037</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13">
-        <v>2697</v>
+        <v>0</v>
       </c>
       <c r="F25" s="13">
-        <v>1626</v>
+        <v>0</v>
       </c>
       <c r="G25" s="13">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="H25" s="13">
-        <v>1147</v>
+        <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="J25" s="13">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="K25" s="13">
-        <v>2032</v>
+        <v>0</v>
       </c>
       <c r="L25" s="13">
-        <v>1766</v>
+        <v>0</v>
       </c>
       <c r="M25" s="13">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>1143422</v>
+        <v>0</v>
       </c>
       <c r="E26" s="11">
-        <v>1143422</v>
+        <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="G26" s="11">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="J26" s="11">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="11">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="L26" s="11">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="M26" s="11">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="E27" s="13">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="F27" s="13">
-        <v>1626</v>
+        <v>0</v>
       </c>
       <c r="G27" s="13">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="H27" s="13">
-        <v>1147</v>
+        <v>0</v>
       </c>
       <c r="I27" s="13">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="J27" s="13">
-        <v>906</v>
+        <v>0</v>
       </c>
       <c r="K27" s="13">
-        <v>2032</v>
+        <v>0</v>
       </c>
       <c r="L27" s="13">
-        <v>1766</v>
+        <v>0</v>
       </c>
       <c r="M27" s="13">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/palayesh/shavan/income/quarterly/rial.xlsx
+++ b/database/industries/palayesh/shavan/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\palayesh\shavan\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25051C9-7BE7-4991-8E4E-6438B12BA452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C1E96A-48DF-498C-BEB3-23FF17D57A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
@@ -832,34 +829,34 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>37415997</v>
       </c>
       <c r="E11" s="13">
-        <v>0</v>
+        <v>63734615</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>65227719</v>
       </c>
       <c r="G11" s="13">
-        <v>0</v>
+        <v>78547663</v>
       </c>
       <c r="H11" s="13">
-        <v>0</v>
+        <v>82700181</v>
       </c>
       <c r="I11" s="13">
-        <v>0</v>
+        <v>100241751</v>
       </c>
       <c r="J11" s="13">
-        <v>0</v>
+        <v>132230271</v>
       </c>
       <c r="K11" s="13">
-        <v>0</v>
+        <v>136993252</v>
       </c>
       <c r="L11" s="13">
-        <v>0</v>
+        <v>103239511</v>
       </c>
       <c r="M11" s="13">
-        <v>0</v>
+        <v>82355074</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -868,34 +865,34 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>0</v>
+        <v>-36302111</v>
       </c>
       <c r="E12" s="11">
-        <v>0</v>
+        <v>-46820037</v>
       </c>
       <c r="F12" s="11">
-        <v>0</v>
+        <v>-55450974</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
+        <v>-66365872</v>
       </c>
       <c r="H12" s="11">
-        <v>0</v>
+        <v>-76509899</v>
       </c>
       <c r="I12" s="11">
-        <v>0</v>
+        <v>-95791807</v>
       </c>
       <c r="J12" s="11">
-        <v>0</v>
+        <v>-109406194</v>
       </c>
       <c r="K12" s="11">
-        <v>0</v>
+        <v>-120997090</v>
       </c>
       <c r="L12" s="11">
-        <v>0</v>
+        <v>-100898806</v>
       </c>
       <c r="M12" s="11">
-        <v>0</v>
+        <v>-84576589</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -904,34 +901,34 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>0</v>
+        <v>1113886</v>
       </c>
       <c r="E13" s="15">
-        <v>0</v>
+        <v>16914578</v>
       </c>
       <c r="F13" s="15">
-        <v>0</v>
+        <v>9776745</v>
       </c>
       <c r="G13" s="15">
-        <v>0</v>
+        <v>12181791</v>
       </c>
       <c r="H13" s="15">
-        <v>0</v>
+        <v>6190282</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>4449944</v>
       </c>
       <c r="J13" s="15">
-        <v>0</v>
+        <v>22824077</v>
       </c>
       <c r="K13" s="15">
-        <v>0</v>
+        <v>15996162</v>
       </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>2340705</v>
       </c>
       <c r="M13" s="15">
-        <v>0</v>
+        <v>-2221515</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -940,34 +937,34 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>0</v>
+        <v>-318950</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>-188291</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>-400738</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>-293345</v>
       </c>
       <c r="H14" s="11">
-        <v>0</v>
+        <v>-265388</v>
       </c>
       <c r="I14" s="11">
-        <v>0</v>
+        <v>-1233474</v>
       </c>
       <c r="J14" s="11">
-        <v>0</v>
+        <v>-924523</v>
       </c>
       <c r="K14" s="11">
-        <v>0</v>
+        <v>-287482</v>
       </c>
       <c r="L14" s="11">
-        <v>0</v>
+        <v>-561619</v>
       </c>
       <c r="M14" s="11">
-        <v>0</v>
+        <v>-1462162</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -975,467 +972,467 @@
         <v>30</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>0</v>
+        <v>2939744</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>-1664696</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>970463</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>-14819</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
+        <v>-112774</v>
       </c>
       <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>31</v>
+        <v>775536</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
       </c>
       <c r="K16" s="11">
-        <v>0</v>
+        <v>1329369</v>
       </c>
       <c r="L16" s="11">
-        <v>0</v>
+        <v>949847</v>
       </c>
       <c r="M16" s="11">
-        <v>0</v>
+        <v>3449894</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>0</v>
+        <v>3734680</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <v>15061591</v>
       </c>
       <c r="F17" s="15">
-        <v>0</v>
+        <v>10346470</v>
       </c>
       <c r="G17" s="15">
-        <v>0</v>
+        <v>11873627</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <v>5812120</v>
       </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <v>3992006</v>
       </c>
       <c r="J17" s="15">
-        <v>0</v>
+        <v>21899554</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <v>17038049</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <v>2728933</v>
       </c>
       <c r="M17" s="15">
-        <v>0</v>
+        <v>-233783</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>0</v>
+        <v>-51252</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>-249840</v>
       </c>
       <c r="F18" s="11">
-        <v>0</v>
+        <v>-297126</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>-220130</v>
       </c>
       <c r="H18" s="11">
-        <v>0</v>
+        <v>-318280</v>
       </c>
       <c r="I18" s="11">
-        <v>0</v>
+        <v>-247658</v>
       </c>
       <c r="J18" s="11">
-        <v>0</v>
+        <v>-266541</v>
       </c>
       <c r="K18" s="11">
-        <v>0</v>
+        <v>-250016</v>
       </c>
       <c r="L18" s="11">
-        <v>0</v>
+        <v>-362031</v>
       </c>
       <c r="M18" s="11">
-        <v>0</v>
+        <v>-413963</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>0</v>
+        <v>-11726</v>
       </c>
       <c r="E19" s="13">
-        <v>0</v>
+        <v>-324413</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>33240</v>
       </c>
       <c r="G19" s="13">
-        <v>0</v>
+        <v>171331</v>
       </c>
       <c r="H19" s="13">
-        <v>0</v>
+        <v>-204571</v>
       </c>
       <c r="I19" s="13">
-        <v>0</v>
+        <v>424271</v>
       </c>
       <c r="J19" s="13">
-        <v>0</v>
+        <v>40068</v>
       </c>
       <c r="K19" s="13">
-        <v>0</v>
+        <v>231596</v>
       </c>
       <c r="L19" s="13">
-        <v>0</v>
+        <v>265952</v>
       </c>
       <c r="M19" s="13">
-        <v>0</v>
+        <v>5768726</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>0</v>
+        <v>3671702</v>
       </c>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>14487338</v>
       </c>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>10082584</v>
       </c>
       <c r="G20" s="17">
-        <v>0</v>
+        <v>11824828</v>
       </c>
       <c r="H20" s="17">
-        <v>0</v>
+        <v>5289269</v>
       </c>
       <c r="I20" s="17">
-        <v>0</v>
+        <v>4168619</v>
       </c>
       <c r="J20" s="17">
-        <v>0</v>
+        <v>21673081</v>
       </c>
       <c r="K20" s="17">
-        <v>0</v>
+        <v>17019629</v>
       </c>
       <c r="L20" s="17">
-        <v>0</v>
+        <v>2632854</v>
       </c>
       <c r="M20" s="17">
-        <v>0</v>
+        <v>5120980</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>-587934</v>
       </c>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>-1479544</v>
       </c>
       <c r="F21" s="13">
-        <v>0</v>
+        <v>-2268582</v>
       </c>
       <c r="G21" s="13">
-        <v>0</v>
+        <v>-2645432</v>
       </c>
       <c r="H21" s="13">
-        <v>0</v>
+        <v>-1205239</v>
       </c>
       <c r="I21" s="13">
-        <v>0</v>
+        <v>3286248</v>
       </c>
       <c r="J21" s="13">
-        <v>0</v>
+        <v>-5418270</v>
       </c>
       <c r="K21" s="13">
-        <v>0</v>
+        <v>-2892738</v>
       </c>
       <c r="L21" s="13">
-        <v>0</v>
+        <v>1802232</v>
       </c>
       <c r="M21" s="13">
-        <v>0</v>
+        <v>2028757</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>0</v>
+        <v>3083768</v>
       </c>
       <c r="E22" s="17">
-        <v>0</v>
+        <v>13007794</v>
       </c>
       <c r="F22" s="17">
-        <v>0</v>
+        <v>7814002</v>
       </c>
       <c r="G22" s="17">
-        <v>0</v>
+        <v>9179396</v>
       </c>
       <c r="H22" s="17">
-        <v>0</v>
+        <v>4084030</v>
       </c>
       <c r="I22" s="17">
-        <v>0</v>
+        <v>7454867</v>
       </c>
       <c r="J22" s="17">
-        <v>0</v>
+        <v>16254811</v>
       </c>
       <c r="K22" s="17">
-        <v>0</v>
+        <v>14126891</v>
       </c>
       <c r="L22" s="17">
-        <v>0</v>
+        <v>4435086</v>
       </c>
       <c r="M22" s="17">
-        <v>0</v>
+        <v>7149737</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>31</v>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>0</v>
+        <v>3083768</v>
       </c>
       <c r="E24" s="17">
-        <v>0</v>
+        <v>13007794</v>
       </c>
       <c r="F24" s="17">
-        <v>0</v>
+        <v>7814002</v>
       </c>
       <c r="G24" s="17">
-        <v>0</v>
+        <v>9179396</v>
       </c>
       <c r="H24" s="17">
-        <v>0</v>
+        <v>4084030</v>
       </c>
       <c r="I24" s="17">
-        <v>0</v>
+        <v>7454867</v>
       </c>
       <c r="J24" s="17">
-        <v>0</v>
+        <v>16254811</v>
       </c>
       <c r="K24" s="17">
-        <v>0</v>
+        <v>14126891</v>
       </c>
       <c r="L24" s="17">
-        <v>0</v>
+        <v>4435086</v>
       </c>
       <c r="M24" s="17">
-        <v>0</v>
+        <v>7149737</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>0</v>
+        <v>2697</v>
       </c>
       <c r="E25" s="13">
-        <v>0</v>
+        <v>1626</v>
       </c>
       <c r="F25" s="13">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="G25" s="13">
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="H25" s="13">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="I25" s="13">
-        <v>0</v>
+        <v>6520</v>
       </c>
       <c r="J25" s="13">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="K25" s="13">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="L25" s="13">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="M25" s="13">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>0</v>
+        <v>1143422</v>
       </c>
       <c r="E26" s="11">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="F26" s="11">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="G26" s="11">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="I26" s="11">
-        <v>0</v>
+        <v>1143422</v>
       </c>
       <c r="J26" s="11">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="K26" s="11">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="L26" s="11">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="M26" s="11">
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="E27" s="13">
-        <v>0</v>
+        <v>1626</v>
       </c>
       <c r="F27" s="13">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="G27" s="13">
-        <v>0</v>
+        <v>1147</v>
       </c>
       <c r="H27" s="13">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="I27" s="13">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="J27" s="13">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="K27" s="13">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="L27" s="13">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="M27" s="13">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
